--- a/report.xlsx
+++ b/report.xlsx
@@ -117,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="143" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,19 +553,19 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>173651</v>
+        <v>173834</v>
       </c>
       <c r="C18">
         <v>347634</v>
       </c>
       <c r="D18">
-        <v>520953</v>
+        <v>521991</v>
       </c>
       <c r="E18">
-        <v>695988</v>
+        <v>695768</v>
       </c>
       <c r="F18">
-        <v>869085</v>
+        <v>869985</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -610,19 +610,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="2">
-        <v>0.99</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="C24" s="2">
-        <v>0.99</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="D24" s="2">
-        <v>0.99</v>
+        <v>0.98819999999999997</v>
       </c>
       <c r="E24" s="2">
-        <v>0.99</v>
+        <v>0.9879</v>
       </c>
       <c r="F24" s="2">
-        <v>0.99</v>
+        <v>0.98819999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>2416</v>
+        <v>2233</v>
       </c>
       <c r="C30">
         <v>4500</v>
       </c>
       <c r="D30">
-        <v>7248</v>
+        <v>6210</v>
       </c>
       <c r="E30">
-        <v>8280</v>
+        <v>8500</v>
       </c>
       <c r="F30">
-        <v>11250</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="B36" s="2">
-        <v>0.01</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="C36" s="2">
-        <v>0.01</v>
+        <v>1.34E-2</v>
       </c>
       <c r="D36" s="2">
-        <v>0.01</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E36" s="2">
-        <v>0.01</v>
+        <v>1.26E-2</v>
       </c>
       <c r="F36" s="2">
-        <v>0.01</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -787,10 +787,10 @@
         <v>3.7</v>
       </c>
       <c r="D42">
+        <v>3.7</v>
+      </c>
+      <c r="E42">
         <v>3.71</v>
-      </c>
-      <c r="E42">
-        <v>3.7</v>
       </c>
       <c r="F42">
         <v>3.7</v>
@@ -844,10 +844,10 @@
         <v>2.7</v>
       </c>
       <c r="D48">
+        <v>2.7</v>
+      </c>
+      <c r="E48">
         <v>2.71</v>
-      </c>
-      <c r="E48">
-        <v>2.7</v>
       </c>
       <c r="F48">
         <v>2.7</v>
